--- a/Database/Csaki/Germania.xlsx
+++ b/Database/Csaki/Germania.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\Csaki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Licenta\Baza date liceta\Licenta_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FFD331-0CE0-42FE-B0F8-AA3DF9DEADE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51800218-6790-4289-ACB5-A7AEE1D3A601}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="0" windowWidth="11460" windowHeight="11544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,13 +104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFED7D31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,6 +139,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFED7D31"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -151,15 +156,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total cases" connectionId="3" xr16:uid="{F5496AA7-4DCF-4A56-8064-E6A126E899E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{1D238815-37DF-4809-A383-51952F6D3467}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Deaths" connectionId="2" xr16:uid="{1D238815-37DF-4809-A383-51952F6D3467}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily cases" connectionId="1" xr16:uid="{2CCC3EB7-464E-4763-B02B-4506B3C2DAD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Daily cases" connectionId="1" xr16:uid="{2CCC3EB7-464E-4763-B02B-4506B3C2DAD6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Total cases" connectionId="3" xr16:uid="{F5496AA7-4DCF-4A56-8064-E6A126E899E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,20 +430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="H260" sqref="H260"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D444"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,3644 +456,6206 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>16</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>16</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>16</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>16</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>16</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>16</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>16</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>18</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>2</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>26</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>8</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>48</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>22</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>74</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>26</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>79</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>130</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>51</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>165</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="4">
         <v>35</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>203</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="4">
         <v>38</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>262</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="4">
         <v>59</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>545</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="4">
         <v>283</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>670</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>125</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>800</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>130</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>1040</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>240</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>1224</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>184</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>1565</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="4">
         <v>341</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="2">
         <v>1966</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="4">
         <v>401</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>2745</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="4">
         <v>779</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>3675</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="4">
         <v>930</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>4599</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="4">
         <v>924</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>5813</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="4">
         <v>1214</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2">
         <v>7272</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="4">
         <v>1459</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="2">
         <v>9367</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="4">
         <v>2095</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="2">
         <v>12327</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="4">
         <v>2960</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="2">
         <v>15320</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="4">
         <v>2993</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="3">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" s="2">
         <v>19848</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="4">
         <v>4528</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>22364</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="4">
         <v>2516</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" s="2">
         <v>24873</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="4">
         <v>2509</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="2">
         <v>29056</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="4">
         <v>4183</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="2">
         <v>32991</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="4">
         <v>3935</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="2">
         <v>37323</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="4">
         <v>4332</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2">
         <v>43938</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="4">
         <v>6615</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="3">
         <v>267</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>50871</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="4">
         <v>6933</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="2">
         <v>57695</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="4">
         <v>6824</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>433</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="2">
         <v>62435</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>4740</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="3">
         <v>541</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" s="2">
         <v>66885</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="4">
         <v>4450</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="3">
         <v>645</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="2">
         <v>71808</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="4">
         <v>4923</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="3">
         <v>775</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" s="2">
         <v>77981</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="4">
         <v>6173</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="3">
         <v>931</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2">
         <v>84794</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="4">
         <v>6813</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="3">
         <v>1107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2">
         <v>91159</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="4">
         <v>6365</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="3">
         <v>1275</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="2">
         <v>96092</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="4">
         <v>4933</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="3">
         <v>1444</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" s="2">
         <v>100123</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="4">
         <v>4031</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="3">
         <v>1584</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="2">
         <v>103375</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="4">
         <v>3252</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="3">
         <v>1810</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="2">
         <v>107663</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="4">
         <v>4288</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="2">
         <v>113296</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="4">
         <v>5633</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="3">
         <v>2349</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="2">
         <v>118235</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="4">
         <v>4939</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="3">
         <v>2607</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="2">
         <v>122171</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="4">
         <v>3936</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="3">
         <v>2736</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" s="2">
         <v>125452</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="4">
         <v>3281</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="3">
         <v>2871</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" s="2">
         <v>127854</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="4">
         <v>2402</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="3">
         <v>3022</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="2">
         <v>130072</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="4">
         <v>2218</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="3">
         <v>3194</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="2">
         <v>132210</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="4">
         <v>2138</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>3495</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="2">
         <v>134753</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="4">
         <v>2543</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="3">
         <v>3804</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="2">
         <v>137698</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="4">
         <v>2945</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>4052</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="2">
         <v>141397</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="4">
         <v>3699</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="3">
         <v>4352</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="2">
         <v>143724</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="4">
         <v>2327</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="3">
         <v>4538</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" s="2">
         <v>145742</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="4">
         <v>2018</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>4642</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="2">
         <v>147065</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="4">
         <v>1323</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>4862</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2">
         <v>148453</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="4">
         <v>1388</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>5086</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>150648</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="4">
         <v>2195</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>5315</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" s="2">
         <v>153129</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="4">
         <v>2481</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>5575</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="2">
         <v>154999</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="4">
         <v>1870</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="3">
         <v>5760</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="2">
         <v>156513</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="4">
         <v>1514</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>5877</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="2">
         <v>157770</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="4">
         <v>1257</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="3">
         <v>5976</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="2">
         <v>158758</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="4">
         <v>988</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="3">
         <v>6126</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="2">
         <v>159912</v>
       </c>
-      <c r="C75" s="3">
-        <v>154</v>
-      </c>
-      <c r="D75" s="4">
+      <c r="C75" s="4">
+        <v>1154</v>
+      </c>
+      <c r="D75" s="3">
         <v>6314</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="2">
         <v>161539</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="4">
         <v>1627</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="3">
         <v>6467</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="2">
         <v>163009</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="4">
         <v>1470</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="3">
         <v>6623</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="2">
         <v>164077</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="4">
         <v>1068</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="3">
         <v>6736</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="2">
         <v>164967</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="4">
         <v>890</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="3">
         <v>6812</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="2">
         <v>165664</v>
       </c>
-      <c r="C80" s="3">
-        <v>97</v>
-      </c>
-      <c r="D80" s="4">
+      <c r="C80" s="4">
+        <v>697</v>
+      </c>
+      <c r="D80" s="3">
         <v>6866</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="2">
         <v>166152</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="4">
         <v>488</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="3">
         <v>6993</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="2">
         <v>167007</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="4">
         <v>855</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="3">
         <v>6993</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="2">
         <v>168162</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="4">
         <v>1155</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="3">
         <v>7275</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="2">
         <v>169430</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="4">
         <v>1268</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="3">
         <v>7392</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="2">
         <v>170588</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="4">
         <v>1158</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="3">
         <v>7510</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="2">
         <v>171324</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="4">
         <v>736</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="3">
         <v>7549</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="2">
         <v>171879</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="4">
         <v>555</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="3">
         <v>7569</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="2">
         <v>172576</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="4">
         <v>697</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="3">
         <v>7661</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="2">
         <v>173171</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="4">
         <v>595</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="3">
         <v>7738</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="2">
         <v>174098</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="4">
         <v>927</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="3">
         <v>7861</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="2">
         <v>174975</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="4">
         <v>877</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="3">
         <v>7928</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="2">
         <v>175699</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="4">
         <v>724</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="3">
         <v>8001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="2">
         <v>176244</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="4">
         <v>545</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="3">
         <v>8027</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="2">
         <v>176651</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="4">
         <v>407</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="3">
         <v>8049</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="2">
         <v>177289</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="4">
         <v>638</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="3">
         <v>8123</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="2">
         <v>177827</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="4">
         <v>538</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="3">
         <v>8193</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="2">
         <v>178531</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="4">
         <v>704</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="3">
         <v>8270</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="2">
         <v>179021</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="4">
         <v>490</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="3">
         <v>8309</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="2">
         <v>179713</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="4">
         <v>692</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="3">
         <v>8352</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="2">
         <v>179986</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="4">
         <v>273</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="3">
         <v>8366</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="2">
         <v>180328</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="4">
         <v>342</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="3">
         <v>8371</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="2">
         <v>180789</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="4">
         <v>461</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="3">
         <v>8428</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="2">
         <v>181288</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="4">
         <v>499</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="3">
         <v>8498</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="2">
         <v>181895</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="4">
         <v>607</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="3">
         <v>8533</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="2">
         <v>182452</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="4">
         <v>557</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="3">
         <v>8570</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="2">
         <v>183019</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="4">
         <v>567</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="3">
         <v>8594</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="2">
         <v>183294</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="4">
         <v>275</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="3">
         <v>8600</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="2">
         <v>183494</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="4">
         <v>200</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="3">
         <v>8605</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="2">
         <v>183765</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="4">
         <v>271</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="3">
         <v>8618</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="2">
         <v>184091</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="4">
         <v>326</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="3">
         <v>8674</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="2">
         <v>184425</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="4">
         <v>334</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="3">
         <v>8699</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="2">
         <v>184923</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="4">
         <v>498</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="3">
         <v>8736</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="2">
         <v>185414</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="4">
         <v>491</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="3">
         <v>8763</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="2">
         <v>185696</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="4">
         <v>282</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="3">
         <v>8769</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="2">
         <v>185869</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="4">
         <v>173</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="3">
         <v>8776</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="2">
         <v>186205</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="4">
         <v>336</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="3">
         <v>8783</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="2">
         <v>186516</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="4">
         <v>311</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="3">
         <v>8831</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="2">
         <v>186510</v>
       </c>
-      <c r="C118" s="3">
-        <v>6</v>
-      </c>
-      <c r="D118" s="4">
+      <c r="C118" s="4">
+        <v>-6</v>
+      </c>
+      <c r="D118" s="3">
         <v>8844</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="2">
         <v>186795</v>
       </c>
-      <c r="C119" s="3">
+      <c r="C119" s="4">
         <v>285</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="3">
         <v>8851</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="2">
         <v>187251</v>
       </c>
-      <c r="C120" s="3">
+      <c r="C120" s="4">
         <v>456</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="3">
         <v>8863</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="2">
         <v>187423</v>
       </c>
-      <c r="C121" s="3">
+      <c r="C121" s="4">
         <v>172</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="3">
         <v>8867</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="2">
         <v>187671</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C122" s="4">
         <v>248</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="3">
         <v>8870</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="2">
         <v>188044</v>
       </c>
-      <c r="C123" s="3">
+      <c r="C123" s="4">
         <v>373</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="3">
         <v>8885</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="2">
         <v>188382</v>
       </c>
-      <c r="C124" s="3">
+      <c r="C124" s="4">
         <v>338</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="3">
         <v>8910</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="2">
         <v>189504</v>
       </c>
-      <c r="C125" s="3">
+      <c r="C125" s="4">
         <v>1122</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="3">
         <v>8927</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="2">
         <v>190126</v>
       </c>
-      <c r="C126" s="3">
+      <c r="C126" s="4">
         <v>622</v>
       </c>
-      <c r="D126" s="4">
+      <c r="D126" s="3">
         <v>8946</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="2">
         <v>190660</v>
       </c>
-      <c r="C127" s="3">
+      <c r="C127" s="4">
         <v>534</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="3">
         <v>8960</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="2">
         <v>191216</v>
       </c>
-      <c r="C128" s="3">
+      <c r="C128" s="4">
         <v>556</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="3">
         <v>8961</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="2">
         <v>191575</v>
       </c>
-      <c r="C129" s="3">
+      <c r="C129" s="4">
         <v>359</v>
       </c>
-      <c r="D129" s="4">
+      <c r="D129" s="3">
         <v>8962</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="2">
         <v>192119</v>
       </c>
-      <c r="C130" s="3">
+      <c r="C130" s="4">
         <v>544</v>
       </c>
-      <c r="D130" s="4">
+      <c r="D130" s="3">
         <v>8969</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="2">
         <v>192778</v>
       </c>
-      <c r="C131" s="3">
+      <c r="C131" s="4">
         <v>659</v>
       </c>
-      <c r="D131" s="4">
+      <c r="D131" s="3">
         <v>8986</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="2">
         <v>193254</v>
       </c>
-      <c r="C132" s="3">
+      <c r="C132" s="4">
         <v>476</v>
       </c>
-      <c r="D132" s="4">
+      <c r="D132" s="3">
         <v>9003</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="2">
         <v>193785</v>
       </c>
-      <c r="C133" s="3">
+      <c r="C133" s="4">
         <v>531</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="3">
         <v>9012</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="2">
         <v>194399</v>
       </c>
-      <c r="C134" s="3">
+      <c r="C134" s="4">
         <v>614</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="3">
         <v>9026</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="2">
         <v>194689</v>
       </c>
-      <c r="C135" s="3">
+      <c r="C135" s="4">
         <v>290</v>
       </c>
-      <c r="D135" s="4">
+      <c r="D135" s="3">
         <v>9026</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" s="2">
         <v>194864</v>
       </c>
-      <c r="C136" s="3">
+      <c r="C136" s="4">
         <v>175</v>
       </c>
-      <c r="D136" s="4">
+      <c r="D136" s="3">
         <v>9029</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="2">
         <v>195392</v>
       </c>
-      <c r="C137" s="3">
+      <c r="C137" s="4">
         <v>528</v>
       </c>
-      <c r="D137" s="4">
+      <c r="D137" s="3">
         <v>9041</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="2">
         <v>195832</v>
       </c>
-      <c r="C138" s="3">
+      <c r="C138" s="4">
         <v>440</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="3">
         <v>9052</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="2">
         <v>196324</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="4">
         <v>492</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="3">
         <v>9061</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" s="2">
         <v>196717</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="4">
         <v>393</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="3">
         <v>9064</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="2">
         <v>197000</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="4">
         <v>283</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="3">
         <v>9073</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="2">
         <v>197418</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="4">
         <v>418</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="3">
         <v>9081</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="2">
         <v>197558</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="4">
         <v>140</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="3">
         <v>9086</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" s="2">
         <v>198057</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="4">
         <v>499</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="3">
         <v>9092</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" s="2">
         <v>198355</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="4">
         <v>298</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="3">
         <v>9103</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" s="2">
         <v>198765</v>
       </c>
-      <c r="C146" s="3">
+      <c r="C146" s="4">
         <v>410</v>
       </c>
-      <c r="D146" s="4">
+      <c r="D146" s="3">
         <v>9115</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" s="2">
         <v>199198</v>
       </c>
-      <c r="C147" s="3">
+      <c r="C147" s="4">
         <v>433</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="3">
         <v>9125</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" s="2">
         <v>199588</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="4">
         <v>390</v>
       </c>
-      <c r="D148" s="4">
+      <c r="D148" s="3">
         <v>9130</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" s="2">
         <v>199812</v>
       </c>
-      <c r="C149" s="3">
+      <c r="C149" s="4">
         <v>224</v>
       </c>
-      <c r="D149" s="4">
+      <c r="D149" s="3">
         <v>9134</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" s="2">
         <v>199950</v>
       </c>
-      <c r="C150" s="3">
+      <c r="C150" s="4">
         <v>138</v>
       </c>
-      <c r="D150" s="4">
+      <c r="D150" s="3">
         <v>9134</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" s="2">
         <v>200436</v>
       </c>
-      <c r="C151" s="3">
+      <c r="C151" s="4">
         <v>486</v>
       </c>
-      <c r="D151" s="4">
+      <c r="D151" s="3">
         <v>9139</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" s="2">
         <v>200766</v>
       </c>
-      <c r="C152" s="3">
+      <c r="C152" s="4">
         <v>330</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="3">
         <v>9144</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" s="2">
         <v>201252</v>
       </c>
-      <c r="C153" s="3">
+      <c r="C153" s="4">
         <v>486</v>
       </c>
-      <c r="D153" s="4">
+      <c r="D153" s="3">
         <v>9148</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" s="2">
         <v>201836</v>
       </c>
-      <c r="C154" s="3">
+      <c r="C154" s="4">
         <v>584</v>
       </c>
-      <c r="D154" s="4">
+      <c r="D154" s="3">
         <v>9157</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" s="2">
         <v>202345</v>
       </c>
-      <c r="C155" s="3">
+      <c r="C155" s="4">
         <v>509</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="3">
         <v>9160</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>202572</v>
       </c>
-      <c r="C156" s="3">
+      <c r="C156" s="4">
         <v>227</v>
       </c>
-      <c r="D156" s="4">
+      <c r="D156" s="3">
         <v>9162</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" s="2">
         <v>202845</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="4">
         <v>273</v>
       </c>
-      <c r="D157" s="4">
+      <c r="D157" s="3">
         <v>9163</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" s="2">
         <v>203487</v>
       </c>
-      <c r="C158" s="3">
+      <c r="C158" s="4">
         <v>642</v>
       </c>
-      <c r="D158" s="4">
+      <c r="D158" s="3">
         <v>9173</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" s="2">
         <v>203890</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="4">
         <v>403</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="3">
         <v>9180</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" s="2">
         <v>204470</v>
       </c>
-      <c r="C160" s="3">
+      <c r="C160" s="4">
         <v>580</v>
       </c>
-      <c r="D160" s="4">
+      <c r="D160" s="3">
         <v>9182</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" s="2">
         <v>205142</v>
       </c>
-      <c r="C161" s="3">
+      <c r="C161" s="4">
         <v>672</v>
       </c>
-      <c r="D161" s="4">
+      <c r="D161" s="3">
         <v>9187</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" s="2">
         <v>205960</v>
       </c>
-      <c r="C162" s="3">
+      <c r="C162" s="4">
         <v>818</v>
       </c>
-      <c r="D162" s="4">
+      <c r="D162" s="3">
         <v>9201</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" s="2">
         <v>206332</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="4">
         <v>372</v>
       </c>
-      <c r="D163" s="4">
+      <c r="D163" s="3">
         <v>9202</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" s="2">
         <v>206741</v>
       </c>
-      <c r="C164" s="3">
+      <c r="C164" s="4">
         <v>409</v>
       </c>
-      <c r="D164" s="4">
+      <c r="D164" s="3">
         <v>9203</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" s="2">
         <v>207379</v>
       </c>
-      <c r="C165" s="3">
+      <c r="C165" s="4">
         <v>638</v>
       </c>
-      <c r="D165" s="4">
+      <c r="D165" s="3">
         <v>9205</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" s="2">
         <v>207951</v>
       </c>
-      <c r="C166" s="3">
+      <c r="C166" s="4">
         <v>572</v>
       </c>
-      <c r="D166" s="4">
+      <c r="D166" s="3">
         <v>9207</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" s="2">
         <v>208811</v>
       </c>
-      <c r="C167" s="3">
+      <c r="C167" s="4">
         <v>860</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="3">
         <v>9212</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" s="2">
         <v>209653</v>
       </c>
-      <c r="C168" s="3">
+      <c r="C168" s="4">
         <v>842</v>
       </c>
-      <c r="D168" s="4">
+      <c r="D168" s="3">
         <v>9221</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" s="2">
         <v>210665</v>
       </c>
-      <c r="C169" s="3">
+      <c r="C169" s="4">
         <v>1012</v>
       </c>
-      <c r="D169" s="4">
+      <c r="D169" s="3">
         <v>9224</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" s="2">
         <v>211077</v>
       </c>
-      <c r="C170" s="3">
+      <c r="C170" s="4">
         <v>412</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D170" s="3">
         <v>9226</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" s="2">
         <v>211462</v>
       </c>
-      <c r="C171" s="3">
+      <c r="C171" s="4">
         <v>385</v>
       </c>
-      <c r="D171" s="4">
+      <c r="D171" s="3">
         <v>9226</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" s="2">
         <v>212320</v>
       </c>
-      <c r="C172" s="3">
+      <c r="C172" s="4">
         <v>858</v>
       </c>
-      <c r="D172" s="4">
+      <c r="D172" s="3">
         <v>9232</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" s="2">
         <v>213080</v>
       </c>
-      <c r="C173" s="3">
+      <c r="C173" s="4">
         <v>760</v>
       </c>
-      <c r="D173" s="4">
+      <c r="D173" s="3">
         <v>9232</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" s="2">
         <v>214104</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="4">
         <v>1024</v>
       </c>
-      <c r="D174" s="4">
+      <c r="D174" s="3">
         <v>9245</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" s="2">
         <v>215210</v>
       </c>
-      <c r="C175" s="3">
+      <c r="C175" s="4">
         <v>1106</v>
       </c>
-      <c r="D175" s="4">
+      <c r="D175" s="3">
         <v>9252</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" s="2">
         <v>216315</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="4">
         <v>1105</v>
       </c>
-      <c r="D176" s="4">
+      <c r="D176" s="3">
         <v>9254</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" s="2">
         <v>216896</v>
       </c>
-      <c r="C177" s="3">
+      <c r="C177" s="4">
         <v>581</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="3">
         <v>9260</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" s="2">
         <v>217281</v>
       </c>
-      <c r="C178" s="3">
+      <c r="C178" s="4">
         <v>385</v>
       </c>
-      <c r="D178" s="4">
+      <c r="D178" s="3">
         <v>9260</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" s="2">
         <v>218500</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="4">
         <v>1219</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="3">
         <v>9265</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" s="2">
         <v>219530</v>
       </c>
-      <c r="C180" s="3">
+      <c r="C180" s="4">
         <v>1030</v>
       </c>
-      <c r="D180" s="4">
+      <c r="D180" s="3">
         <v>9268</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" s="2">
         <v>220850</v>
       </c>
-      <c r="C181" s="3">
+      <c r="C181" s="4">
         <v>1320</v>
       </c>
-      <c r="D181" s="4">
+      <c r="D181" s="3">
         <v>9276</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" s="2">
         <v>222269</v>
       </c>
-      <c r="C182" s="3">
+      <c r="C182" s="4">
         <v>1419</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="3">
         <v>9281</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" s="2">
         <v>223774</v>
       </c>
-      <c r="C183" s="3">
+      <c r="C183" s="4">
         <v>1505</v>
       </c>
-      <c r="D183" s="4">
+      <c r="D183" s="3">
         <v>9289</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" s="2">
         <v>224478</v>
       </c>
-      <c r="C184" s="3">
+      <c r="C184" s="4">
         <v>704</v>
       </c>
-      <c r="D184" s="4">
+      <c r="D184" s="3">
         <v>9290</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" s="2">
         <v>224997</v>
       </c>
-      <c r="C185" s="3">
+      <c r="C185" s="4">
         <v>519</v>
       </c>
-      <c r="D185" s="4">
+      <c r="D185" s="3">
         <v>9290</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" s="2">
         <v>226686</v>
       </c>
-      <c r="C186" s="3">
+      <c r="C186" s="4">
         <v>1689</v>
       </c>
-      <c r="D186" s="4">
+      <c r="D186" s="3">
         <v>9296</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" s="2">
         <v>228105</v>
       </c>
-      <c r="C187" s="3">
+      <c r="C187" s="4">
         <v>1419</v>
       </c>
-      <c r="D187" s="4">
+      <c r="D187" s="3">
         <v>9305</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" s="2">
         <v>229700</v>
       </c>
-      <c r="C188" s="3">
+      <c r="C188" s="4">
         <v>1595</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="3">
         <v>9314</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" s="2">
         <v>231284</v>
       </c>
-      <c r="C189" s="3">
+      <c r="C189" s="4">
         <v>1584</v>
       </c>
-      <c r="D189" s="4">
+      <c r="D189" s="3">
         <v>9324</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" s="2">
         <v>233021</v>
       </c>
-      <c r="C190" s="3">
+      <c r="C190" s="4">
         <v>1737</v>
       </c>
-      <c r="D190" s="4">
+      <c r="D190" s="3">
         <v>9328</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" s="2">
         <v>233857</v>
       </c>
-      <c r="C191" s="3">
+      <c r="C191" s="4">
         <v>836</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="3">
         <v>9331</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" s="2">
         <v>234489</v>
       </c>
-      <c r="C192" s="3">
+      <c r="C192" s="4">
         <v>632</v>
       </c>
-      <c r="D192" s="4">
+      <c r="D192" s="3">
         <v>9332</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" s="2">
         <v>236117</v>
       </c>
-      <c r="C193" s="3">
+      <c r="C193" s="4">
         <v>1628</v>
       </c>
-      <c r="D193" s="4">
+      <c r="D193" s="3">
         <v>9336</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" s="2">
         <v>237572</v>
       </c>
-      <c r="C194" s="3">
+      <c r="C194" s="4">
         <v>1455</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="3">
         <v>9345</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" s="2">
         <v>239000</v>
       </c>
-      <c r="C195" s="3">
+      <c r="C195" s="4">
         <v>1428</v>
       </c>
-      <c r="D195" s="4">
+      <c r="D195" s="3">
         <v>9352</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" s="2">
         <v>240565</v>
       </c>
-      <c r="C196" s="3">
+      <c r="C196" s="4">
         <v>1565</v>
       </c>
-      <c r="D196" s="4">
+      <c r="D196" s="3">
         <v>9359</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" s="2">
         <v>242114</v>
       </c>
-      <c r="C197" s="3">
+      <c r="C197" s="4">
         <v>1549</v>
       </c>
-      <c r="D197" s="4">
+      <c r="D197" s="3">
         <v>9360</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" s="2">
         <v>242825</v>
       </c>
-      <c r="C198" s="3">
+      <c r="C198" s="4">
         <v>711</v>
       </c>
-      <c r="D198" s="4">
+      <c r="D198" s="3">
         <v>9363</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" s="2">
         <v>243295</v>
       </c>
-      <c r="C199" s="3">
+      <c r="C199" s="4">
         <v>470</v>
       </c>
-      <c r="D199" s="4">
+      <c r="D199" s="3">
         <v>9364</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" s="2">
         <v>244792</v>
       </c>
-      <c r="C200" s="3">
+      <c r="C200" s="4">
         <v>1497</v>
       </c>
-      <c r="D200" s="4">
+      <c r="D200" s="3">
         <v>9371</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" s="2">
         <v>246001</v>
       </c>
-      <c r="C201" s="3">
+      <c r="C201" s="4">
         <v>1209</v>
       </c>
-      <c r="D201" s="4">
+      <c r="D201" s="3">
         <v>9381</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" s="2">
         <v>247391</v>
       </c>
-      <c r="C202" s="3">
+      <c r="C202" s="4">
         <v>1390</v>
       </c>
-      <c r="D202" s="4">
+      <c r="D202" s="3">
         <v>9393</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" s="2">
         <v>248814</v>
       </c>
-      <c r="C203" s="3">
+      <c r="C203" s="4">
         <v>1423</v>
       </c>
-      <c r="D203" s="4">
+      <c r="D203" s="3">
         <v>9399</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" s="2">
         <v>250281</v>
       </c>
-      <c r="C204" s="3">
+      <c r="C204" s="4">
         <v>1467</v>
       </c>
-      <c r="D204" s="4">
+      <c r="D204" s="3">
         <v>9401</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" s="2">
         <v>251056</v>
       </c>
-      <c r="C205" s="3">
+      <c r="C205" s="4">
         <v>775</v>
       </c>
-      <c r="D205" s="4">
+      <c r="D205" s="3">
         <v>9401</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" s="2">
         <v>251724</v>
       </c>
-      <c r="C206" s="3">
+      <c r="C206" s="4">
         <v>668</v>
       </c>
-      <c r="D206" s="4">
+      <c r="D206" s="3">
         <v>9401</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" s="2">
         <v>253625</v>
       </c>
-      <c r="C207" s="3">
+      <c r="C207" s="4">
         <v>1901</v>
       </c>
-      <c r="D207" s="4">
+      <c r="D207" s="3">
         <v>9405</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" s="2">
         <v>254956</v>
       </c>
-      <c r="C208" s="3">
+      <c r="C208" s="4">
         <v>1331</v>
       </c>
-      <c r="D208" s="4">
+      <c r="D208" s="3">
         <v>9409</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" s="2">
         <v>256349</v>
       </c>
-      <c r="C209" s="3">
+      <c r="C209" s="4">
         <v>1393</v>
       </c>
-      <c r="D209" s="4">
+      <c r="D209" s="3">
         <v>9410</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" s="2">
         <v>258107</v>
       </c>
-      <c r="C210" s="3">
+      <c r="C210" s="4">
         <v>1758</v>
       </c>
-      <c r="D210" s="4">
+      <c r="D210" s="3">
         <v>9419</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" s="2">
         <v>259725</v>
       </c>
-      <c r="C211" s="3">
+      <c r="C211" s="4">
         <v>1618</v>
       </c>
-      <c r="D211" s="4">
+      <c r="D211" s="3">
         <v>9423</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" s="2">
         <v>260546</v>
       </c>
-      <c r="C212" s="3">
+      <c r="C212" s="4">
         <v>821</v>
       </c>
-      <c r="D212" s="4">
+      <c r="D212" s="3">
         <v>9427</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" s="2">
         <v>261298</v>
       </c>
-      <c r="C213" s="3">
+      <c r="C213" s="4">
         <v>752</v>
       </c>
-      <c r="D213" s="4">
+      <c r="D213" s="3">
         <v>9428</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" s="2">
         <v>263221</v>
       </c>
-      <c r="C214" s="3">
+      <c r="C214" s="4">
         <v>1923</v>
       </c>
-      <c r="D214" s="4">
+      <c r="D214" s="3">
         <v>9436</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" s="2">
         <v>264844</v>
       </c>
-      <c r="C215" s="3">
+      <c r="C215" s="4">
         <v>1623</v>
       </c>
-      <c r="D215" s="4">
+      <c r="D215" s="3">
         <v>9445</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" s="2">
         <v>266865</v>
       </c>
-      <c r="C216" s="3">
+      <c r="C216" s="4">
         <v>2021</v>
       </c>
-      <c r="D216" s="4">
+      <c r="D216" s="3">
         <v>9449</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" s="2">
         <v>269042</v>
       </c>
-      <c r="C217" s="3">
+      <c r="C217" s="4">
         <v>2177</v>
       </c>
-      <c r="D217" s="4">
+      <c r="D217" s="3">
         <v>9457</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" s="2">
         <v>271244</v>
       </c>
-      <c r="C218" s="3">
+      <c r="C218" s="4">
         <v>2202</v>
       </c>
-      <c r="D218" s="4">
+      <c r="D218" s="3">
         <v>9464</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" s="2">
         <v>272308</v>
       </c>
-      <c r="C219" s="3">
+      <c r="C219" s="4">
         <v>1064</v>
       </c>
-      <c r="D219" s="4">
+      <c r="D219" s="3">
         <v>9466</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" s="2">
         <v>273477</v>
       </c>
-      <c r="C220" s="3">
+      <c r="C220" s="4">
         <v>1169</v>
       </c>
-      <c r="D220" s="4">
+      <c r="D220" s="3">
         <v>9470</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" s="2">
         <v>275551</v>
       </c>
-      <c r="C221" s="3">
+      <c r="C221" s="4">
         <v>2074</v>
       </c>
-      <c r="D221" s="4">
+      <c r="D221" s="3">
         <v>9481</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" s="2">
         <v>277176</v>
       </c>
-      <c r="C222" s="3">
+      <c r="C222" s="4">
         <v>1625</v>
       </c>
-      <c r="D222" s="4">
+      <c r="D222" s="3">
         <v>9491</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" s="2">
         <v>279205</v>
       </c>
-      <c r="C223" s="3">
+      <c r="C223" s="4">
         <v>2029</v>
       </c>
-      <c r="D223" s="4">
+      <c r="D223" s="3">
         <v>9508</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" s="2">
         <v>281345</v>
       </c>
-      <c r="C224" s="3">
+      <c r="C224" s="4">
         <v>2140</v>
       </c>
-      <c r="D224" s="4">
+      <c r="D224" s="3">
         <v>9519</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" s="2">
         <v>283706</v>
       </c>
-      <c r="C225" s="3">
+      <c r="C225" s="4">
         <v>2361</v>
       </c>
-      <c r="D225" s="4">
+      <c r="D225" s="3">
         <v>9530</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" s="2">
         <v>285025</v>
       </c>
-      <c r="C226" s="3">
+      <c r="C226" s="4">
         <v>1319</v>
       </c>
-      <c r="D226" s="4">
+      <c r="D226" s="3">
         <v>9532</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" s="2">
         <v>286338</v>
       </c>
-      <c r="C227" s="3">
+      <c r="C227" s="4">
         <v>1313</v>
       </c>
-      <c r="D227" s="4">
+      <c r="D227" s="3">
         <v>9534</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" s="2">
         <v>288618</v>
       </c>
-      <c r="C228" s="3">
+      <c r="C228" s="4">
         <v>2280</v>
       </c>
-      <c r="D228" s="4">
+      <c r="D228" s="3">
         <v>9545</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" s="2">
         <v>290466</v>
       </c>
-      <c r="C229" s="3">
+      <c r="C229" s="4">
         <v>1848</v>
       </c>
-      <c r="D229" s="4">
+      <c r="D229" s="3">
         <v>9556</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" s="2">
         <v>292911</v>
       </c>
-      <c r="C230" s="3">
+      <c r="C230" s="4">
         <v>2445</v>
       </c>
-      <c r="D230" s="4">
+      <c r="D230" s="3">
         <v>9571</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" s="2">
         <v>295530</v>
       </c>
-      <c r="C231" s="3">
+      <c r="C231" s="4">
         <v>2619</v>
       </c>
-      <c r="D231" s="4">
+      <c r="D231" s="3">
         <v>9586</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" s="2">
         <v>298363</v>
       </c>
-      <c r="C232" s="3">
+      <c r="C232" s="4">
         <v>2833</v>
       </c>
-      <c r="D232" s="4">
+      <c r="D232" s="3">
         <v>9596</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" s="2">
         <v>300028</v>
       </c>
-      <c r="C233" s="3">
+      <c r="C233" s="4">
         <v>1665</v>
       </c>
-      <c r="D233" s="4">
+      <c r="D233" s="3">
         <v>9597</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" s="2">
         <v>301571</v>
       </c>
-      <c r="C234" s="3">
+      <c r="C234" s="4">
         <v>1543</v>
       </c>
-      <c r="D234" s="4">
+      <c r="D234" s="3">
         <v>9602</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" s="2">
         <v>304657</v>
       </c>
-      <c r="C235" s="3">
+      <c r="C235" s="4">
         <v>3086</v>
       </c>
-      <c r="D235" s="4">
+      <c r="D235" s="3">
         <v>9616</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" s="2">
         <v>307119</v>
       </c>
-      <c r="C236" s="3">
+      <c r="C236" s="4">
         <v>2462</v>
       </c>
-      <c r="D236" s="4">
+      <c r="D236" s="3">
         <v>9635</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" s="2">
         <v>311113</v>
       </c>
-      <c r="C237" s="3">
+      <c r="C237" s="4">
         <v>3994</v>
       </c>
-      <c r="D237" s="4">
+      <c r="D237" s="3">
         <v>9652</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" s="2">
         <v>315514</v>
       </c>
-      <c r="C238" s="3">
+      <c r="C238" s="4">
         <v>4401</v>
       </c>
-      <c r="D238" s="4">
+      <c r="D238" s="3">
         <v>9667</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" s="2">
         <v>320478</v>
       </c>
-      <c r="C239" s="3">
+      <c r="C239" s="4">
         <v>4964</v>
       </c>
-      <c r="D239" s="4">
+      <c r="D239" s="3">
         <v>9687</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" s="2">
         <v>323453</v>
       </c>
-      <c r="C240" s="3">
+      <c r="C240" s="4">
         <v>2975</v>
       </c>
-      <c r="D240" s="4">
+      <c r="D240" s="3">
         <v>9691</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" s="2">
         <v>326291</v>
       </c>
-      <c r="C241" s="3">
+      <c r="C241" s="4">
         <v>2838</v>
       </c>
-      <c r="D241" s="4">
+      <c r="D241" s="3">
         <v>9702</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" s="2">
         <v>331094</v>
       </c>
-      <c r="C242" s="3">
+      <c r="C242" s="4">
         <v>4803</v>
       </c>
-      <c r="D242" s="4">
+      <c r="D242" s="3">
         <v>9721</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" s="2">
         <v>335679</v>
       </c>
-      <c r="C243" s="3">
+      <c r="C243" s="4">
         <v>4585</v>
       </c>
-      <c r="D243" s="4">
+      <c r="D243" s="3">
         <v>9740</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" s="2">
         <v>341742</v>
       </c>
-      <c r="C244" s="3">
+      <c r="C244" s="4">
         <v>6063</v>
       </c>
-      <c r="D244" s="4">
+      <c r="D244" s="3">
         <v>9771</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" s="2">
         <v>348816</v>
       </c>
-      <c r="C245" s="3">
+      <c r="C245" s="4">
         <v>7074</v>
       </c>
-      <c r="D245" s="4">
+      <c r="D245" s="3">
         <v>9810</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" s="2">
         <v>356792</v>
       </c>
-      <c r="C246" s="3">
+      <c r="C246" s="4">
         <v>7976</v>
       </c>
-      <c r="D246" s="4">
+      <c r="D246" s="3">
         <v>9836</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" s="2">
         <v>361733</v>
       </c>
-      <c r="C247" s="3">
+      <c r="C247" s="4">
         <v>4941</v>
       </c>
-      <c r="D247" s="4">
+      <c r="D247" s="3">
         <v>9853</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" s="2">
         <v>366981</v>
       </c>
-      <c r="C248" s="3">
+      <c r="C248" s="4">
         <v>5248</v>
       </c>
-      <c r="D248" s="4">
+      <c r="D248" s="3">
         <v>9866</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" s="2">
         <v>373731</v>
       </c>
-      <c r="C249" s="3">
+      <c r="C249" s="4">
         <v>6750</v>
       </c>
-      <c r="D249" s="4">
+      <c r="D249" s="3">
         <v>9899</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" s="2">
         <v>380898</v>
       </c>
-      <c r="C250" s="3">
+      <c r="C250" s="4">
         <v>7167</v>
       </c>
-      <c r="D250" s="4">
+      <c r="D250" s="3">
         <v>9955</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" s="2">
         <v>391355</v>
       </c>
-      <c r="C251" s="3">
+      <c r="C251" s="4">
         <v>10457</v>
       </c>
-      <c r="D251" s="4">
+      <c r="D251" s="3">
         <v>9999</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" s="2">
         <v>403874</v>
       </c>
-      <c r="C252" s="3">
+      <c r="C252" s="4">
         <v>12519</v>
       </c>
-      <c r="D252" s="4">
+      <c r="D252" s="3">
         <v>10044</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" s="2">
         <v>417350</v>
       </c>
-      <c r="C253" s="3">
+      <c r="C253" s="4">
         <v>13476</v>
       </c>
-      <c r="D253" s="4">
+      <c r="D253" s="3">
         <v>10090</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" s="2">
         <v>427808</v>
       </c>
-      <c r="C254" s="3">
+      <c r="C254" s="4">
         <v>10458</v>
       </c>
-      <c r="D254" s="4">
+      <c r="D254" s="3">
         <v>10111</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" s="2">
         <v>437637</v>
       </c>
-      <c r="C255" s="3">
+      <c r="C255" s="4">
         <v>9829</v>
       </c>
-      <c r="D255" s="4">
+      <c r="D255" s="3">
         <v>10138</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" s="2">
         <v>450258</v>
       </c>
-      <c r="C256" s="3">
+      <c r="C256" s="4">
         <v>12621</v>
       </c>
-      <c r="D256" s="4">
+      <c r="D256" s="3">
         <v>10182</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" s="2">
         <v>463419</v>
       </c>
-      <c r="C257" s="3">
+      <c r="C257" s="4">
         <v>13161</v>
       </c>
-      <c r="D257" s="4">
+      <c r="D257" s="3">
         <v>10263</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" s="2">
         <v>479621</v>
       </c>
-      <c r="C258" s="3">
+      <c r="C258" s="4">
         <v>16202</v>
       </c>
-      <c r="D258" s="4">
+      <c r="D258" s="3">
         <v>10359</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" s="2">
         <v>498353</v>
       </c>
-      <c r="C259" s="3">
+      <c r="C259" s="4">
         <v>18732</v>
       </c>
-      <c r="D259" s="4">
+      <c r="D259" s="3">
         <v>10435</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" s="2">
         <v>517720</v>
       </c>
-      <c r="C260" s="3">
+      <c r="C260" s="4">
         <v>19367</v>
       </c>
-      <c r="D260" s="4">
+      <c r="D260" s="3">
         <v>10523</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" s="2">
         <v>531790</v>
       </c>
-      <c r="C261" s="3">
+      <c r="C261" s="4">
         <v>14070</v>
       </c>
-      <c r="D261" s="4">
+      <c r="D261" s="3">
         <v>10583</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="2">
+        <v>544346</v>
+      </c>
+      <c r="C262" s="4">
+        <v>12556</v>
+      </c>
+      <c r="D262" s="3">
+        <v>10622</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="2">
+        <v>560586</v>
+      </c>
+      <c r="C263" s="4">
+        <v>16240</v>
+      </c>
+      <c r="D263" s="3">
+        <v>10734</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="2">
+        <v>577131</v>
+      </c>
+      <c r="C264" s="4">
+        <v>16545</v>
+      </c>
+      <c r="D264" s="3">
+        <v>10883</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" s="2">
+        <v>597359</v>
+      </c>
+      <c r="C265" s="4">
+        <v>20228</v>
+      </c>
+      <c r="D265" s="3">
+        <v>11028</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" s="2">
+        <v>619116</v>
+      </c>
+      <c r="C266" s="4">
+        <v>21757</v>
+      </c>
+      <c r="D266" s="3">
+        <v>11190</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" s="2">
+        <v>641362</v>
+      </c>
+      <c r="C267" s="4">
+        <v>22246</v>
+      </c>
+      <c r="D267" s="3">
+        <v>11364</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" s="2">
+        <v>658481</v>
+      </c>
+      <c r="C268" s="4">
+        <v>17119</v>
+      </c>
+      <c r="D268" s="3">
+        <v>11435</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" s="2">
+        <v>672507</v>
+      </c>
+      <c r="C269" s="4">
+        <v>14026</v>
+      </c>
+      <c r="D269" s="3">
+        <v>11505</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" s="2">
+        <v>688972</v>
+      </c>
+      <c r="C270" s="4">
+        <v>16465</v>
+      </c>
+      <c r="D270" s="3">
+        <v>11657</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" s="2">
+        <v>705640</v>
+      </c>
+      <c r="C271" s="4">
+        <v>16668</v>
+      </c>
+      <c r="D271" s="3">
+        <v>11860</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" s="2">
+        <v>726176</v>
+      </c>
+      <c r="C272" s="4">
+        <v>20536</v>
+      </c>
+      <c r="D272" s="3">
+        <v>12082</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" s="2">
+        <v>749638</v>
+      </c>
+      <c r="C273" s="4">
+        <v>23462</v>
+      </c>
+      <c r="D273" s="3">
+        <v>12276</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" s="2">
+        <v>772822</v>
+      </c>
+      <c r="C274" s="4">
+        <v>23184</v>
+      </c>
+      <c r="D274" s="3">
+        <v>12503</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" s="2">
+        <v>788899</v>
+      </c>
+      <c r="C275" s="4">
+        <v>16077</v>
+      </c>
+      <c r="D275" s="3">
+        <v>12619</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" s="2">
+        <v>802944</v>
+      </c>
+      <c r="C276" s="4">
+        <v>14045</v>
+      </c>
+      <c r="D276" s="3">
+        <v>12692</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" s="2">
+        <v>817526</v>
+      </c>
+      <c r="C277" s="4">
+        <v>14582</v>
+      </c>
+      <c r="D277" s="3">
+        <v>12891</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" s="2">
+        <v>833732</v>
+      </c>
+      <c r="C278" s="4">
+        <v>16206</v>
+      </c>
+      <c r="D278" s="3">
+        <v>13248</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" s="2">
+        <v>854533</v>
+      </c>
+      <c r="C279" s="4">
+        <v>20801</v>
+      </c>
+      <c r="D279" s="3">
+        <v>13492</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" s="2">
+        <v>878209</v>
+      </c>
+      <c r="C280" s="4">
+        <v>23676</v>
+      </c>
+      <c r="D280" s="3">
+        <v>13788</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" s="2">
+        <v>901659</v>
+      </c>
+      <c r="C281" s="4">
+        <v>23450</v>
+      </c>
+      <c r="D281" s="3">
+        <v>14076</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" s="2">
+        <v>918271</v>
+      </c>
+      <c r="C282" s="4">
+        <v>16612</v>
+      </c>
+      <c r="D282" s="3">
+        <v>14239</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" s="2">
+        <v>932111</v>
+      </c>
+      <c r="C283" s="4">
+        <v>13840</v>
+      </c>
+      <c r="D283" s="3">
+        <v>14343</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" s="2">
+        <v>946648</v>
+      </c>
+      <c r="C284" s="4">
+        <v>14537</v>
+      </c>
+      <c r="D284" s="3">
+        <v>14583</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" s="2">
+        <v>962906</v>
+      </c>
+      <c r="C285" s="4">
+        <v>16258</v>
+      </c>
+      <c r="D285" s="3">
+        <v>14965</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" s="2">
+        <v>983731</v>
+      </c>
+      <c r="C286" s="4">
+        <v>20825</v>
+      </c>
+      <c r="D286" s="3">
+        <v>15381</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" s="2">
+        <v>1005307</v>
+      </c>
+      <c r="C287" s="4">
+        <v>21576</v>
+      </c>
+      <c r="D287" s="3">
+        <v>15767</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" s="2">
+        <v>1027325</v>
+      </c>
+      <c r="C288" s="4">
+        <v>22018</v>
+      </c>
+      <c r="D288" s="3">
+        <v>16172</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" s="2">
+        <v>1041970</v>
+      </c>
+      <c r="C289" s="4">
+        <v>14645</v>
+      </c>
+      <c r="D289" s="3">
+        <v>16377</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" s="2">
+        <v>1055607</v>
+      </c>
+      <c r="C290" s="4">
+        <v>13637</v>
+      </c>
+      <c r="D290" s="3">
+        <v>16533</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" s="2">
+        <v>1069763</v>
+      </c>
+      <c r="C291" s="4">
+        <v>14156</v>
+      </c>
+      <c r="D291" s="3">
+        <v>16862</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" s="2">
+        <v>1085661</v>
+      </c>
+      <c r="C292" s="4">
+        <v>15898</v>
+      </c>
+      <c r="D292" s="3">
+        <v>17359</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" s="2">
+        <v>1105832</v>
+      </c>
+      <c r="C293" s="4">
+        <v>20171</v>
+      </c>
+      <c r="D293" s="3">
+        <v>17812</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" s="2">
+        <v>1128742</v>
+      </c>
+      <c r="C294" s="4">
+        <v>22910</v>
+      </c>
+      <c r="D294" s="3">
+        <v>18260</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" s="2">
+        <v>1152283</v>
+      </c>
+      <c r="C295" s="4">
+        <v>23541</v>
+      </c>
+      <c r="D295" s="3">
+        <v>18691</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" s="2">
+        <v>1170095</v>
+      </c>
+      <c r="C296" s="4">
+        <v>17812</v>
+      </c>
+      <c r="D296" s="3">
+        <v>18975</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" s="2">
+        <v>1184845</v>
+      </c>
+      <c r="C297" s="4">
+        <v>14750</v>
+      </c>
+      <c r="D297" s="3">
+        <v>19159</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" s="2">
+        <v>1200006</v>
+      </c>
+      <c r="C298" s="4">
+        <v>15161</v>
+      </c>
+      <c r="D298" s="3">
+        <v>19539</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" s="2">
+        <v>1218325</v>
+      </c>
+      <c r="C299" s="4">
+        <v>18319</v>
+      </c>
+      <c r="D299" s="3">
+        <v>20161</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" s="2">
+        <v>1242253</v>
+      </c>
+      <c r="C300" s="4">
+        <v>23928</v>
+      </c>
+      <c r="D300" s="3">
+        <v>20704</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" s="2">
+        <v>1270432</v>
+      </c>
+      <c r="C301" s="4">
+        <v>28179</v>
+      </c>
+      <c r="D301" s="3">
+        <v>21233</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" s="2">
+        <v>1298776</v>
+      </c>
+      <c r="C302" s="4">
+        <v>28344</v>
+      </c>
+      <c r="D302" s="3">
+        <v>21820</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" s="2">
+        <v>1320592</v>
+      </c>
+      <c r="C303" s="4">
+        <v>21816</v>
+      </c>
+      <c r="D303" s="3">
+        <v>22171</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" s="2">
+        <v>1338483</v>
+      </c>
+      <c r="C304" s="4">
+        <v>17891</v>
+      </c>
+      <c r="D304" s="3">
+        <v>22406</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305" s="2">
+        <v>1357141</v>
+      </c>
+      <c r="C305" s="4">
+        <v>18658</v>
+      </c>
+      <c r="D305" s="3">
+        <v>22887</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306" s="2">
+        <v>1378518</v>
+      </c>
+      <c r="C306" s="4">
+        <v>21377</v>
+      </c>
+      <c r="D306" s="3">
+        <v>23692</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307" s="2">
+        <v>1407487</v>
+      </c>
+      <c r="C307" s="4">
+        <v>28969</v>
+      </c>
+      <c r="D307" s="3">
+        <v>24441</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308" s="2">
+        <v>1438438</v>
+      </c>
+      <c r="C308" s="4">
+        <v>30951</v>
+      </c>
+      <c r="D308" s="3">
+        <v>25165</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309" s="2">
+        <v>1469991</v>
+      </c>
+      <c r="C309" s="4">
+        <v>31553</v>
+      </c>
+      <c r="D309" s="3">
+        <v>26003</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310" s="2">
+        <v>1493961</v>
+      </c>
+      <c r="C310" s="4">
+        <v>23970</v>
+      </c>
+      <c r="D310" s="3">
+        <v>26414</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311" s="2">
+        <v>1514783</v>
+      </c>
+      <c r="C311" s="4">
+        <v>20822</v>
+      </c>
+      <c r="D311" s="3">
+        <v>26764</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312" s="2">
+        <v>1534116</v>
+      </c>
+      <c r="C312" s="4">
+        <v>19333</v>
+      </c>
+      <c r="D312" s="3">
+        <v>27297</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313" s="2">
+        <v>1556611</v>
+      </c>
+      <c r="C313" s="4">
+        <v>22495</v>
+      </c>
+      <c r="D313" s="3">
+        <v>28241</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314" s="2">
+        <v>1587908</v>
+      </c>
+      <c r="C314" s="4">
+        <v>31297</v>
+      </c>
+      <c r="D314" s="3">
+        <v>29127</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315" s="2">
+        <v>1614326</v>
+      </c>
+      <c r="C315" s="4">
+        <v>26418</v>
+      </c>
+      <c r="D315" s="3">
+        <v>29681</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316" s="2">
+        <v>1632737</v>
+      </c>
+      <c r="C316" s="4">
+        <v>18411</v>
+      </c>
+      <c r="D316" s="3">
+        <v>29968</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317" s="2">
+        <v>1643169</v>
+      </c>
+      <c r="C317" s="4">
+        <v>10432</v>
+      </c>
+      <c r="D317" s="3">
+        <v>30157</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318" s="2">
+        <v>1655322</v>
+      </c>
+      <c r="C318" s="4">
+        <v>12153</v>
+      </c>
+      <c r="D318" s="3">
+        <v>30502</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319" s="2">
+        <v>1672645</v>
+      </c>
+      <c r="C319" s="4">
+        <v>17323</v>
+      </c>
+      <c r="D319" s="3">
+        <v>31176</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320" s="2">
+        <v>1691763</v>
+      </c>
+      <c r="C320" s="4">
+        <v>19118</v>
+      </c>
+      <c r="D320" s="3">
+        <v>32420</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321" s="2">
+        <v>1720173</v>
+      </c>
+      <c r="C321" s="4">
+        <v>28410</v>
+      </c>
+      <c r="D321" s="3">
+        <v>33486</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322" s="2">
+        <v>1745518</v>
+      </c>
+      <c r="C322" s="4">
+        <v>25345</v>
+      </c>
+      <c r="D322" s="3">
+        <v>34194</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323" s="2">
+        <v>1762525</v>
+      </c>
+      <c r="C323" s="4">
+        <v>17007</v>
+      </c>
+      <c r="D323" s="3">
+        <v>34519</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324" s="2">
+        <v>1773540</v>
+      </c>
+      <c r="C324" s="4">
+        <v>11015</v>
+      </c>
+      <c r="D324" s="3">
+        <v>34859</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325" s="2">
+        <v>1784160</v>
+      </c>
+      <c r="C325" s="4">
+        <v>10620</v>
+      </c>
+      <c r="D325" s="3">
+        <v>35105</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326" s="2">
+        <v>1796216</v>
+      </c>
+      <c r="C326" s="4">
+        <v>12056</v>
+      </c>
+      <c r="D326" s="3">
+        <v>35982</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327" s="2">
+        <v>1814577</v>
+      </c>
+      <c r="C327" s="4">
+        <v>18361</v>
+      </c>
+      <c r="D327" s="3">
+        <v>37180</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328" s="2">
+        <v>1841228</v>
+      </c>
+      <c r="C328" s="4">
+        <v>26651</v>
+      </c>
+      <c r="D328" s="3">
+        <v>38199</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329" s="2">
+        <v>1869328</v>
+      </c>
+      <c r="C329" s="4">
+        <v>28100</v>
+      </c>
+      <c r="D329" s="3">
+        <v>39258</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330" s="2">
+        <v>1894957</v>
+      </c>
+      <c r="C330" s="4">
+        <v>25629</v>
+      </c>
+      <c r="D330" s="3">
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331" s="2">
+        <v>1915159</v>
+      </c>
+      <c r="C331" s="4">
+        <v>20202</v>
+      </c>
+      <c r="D331" s="3">
+        <v>41061</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332" s="2">
+        <v>1929354</v>
+      </c>
+      <c r="C332" s="4">
+        <v>14195</v>
+      </c>
+      <c r="D332" s="3">
+        <v>41434</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333" s="2">
+        <v>1941077</v>
+      </c>
+      <c r="C333" s="4">
+        <v>11723</v>
+      </c>
+      <c r="D333" s="3">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334" s="2">
+        <v>1957593</v>
+      </c>
+      <c r="C334" s="4">
+        <v>16516</v>
+      </c>
+      <c r="D334" s="3">
+        <v>43203</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335" s="2">
+        <v>1981054</v>
+      </c>
+      <c r="C335" s="4">
+        <v>23461</v>
+      </c>
+      <c r="D335" s="3">
+        <v>44404</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336" s="2">
+        <v>2004011</v>
+      </c>
+      <c r="C336" s="4">
+        <v>22957</v>
+      </c>
+      <c r="D336" s="3">
+        <v>45492</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337" s="2">
+        <v>2023801</v>
+      </c>
+      <c r="C337" s="4">
+        <v>19790</v>
+      </c>
+      <c r="D337" s="3">
+        <v>46537</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338" s="2">
+        <v>2038672</v>
+      </c>
+      <c r="C338" s="4">
+        <v>14871</v>
+      </c>
+      <c r="D338" s="3">
+        <v>47121</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339" s="2">
+        <v>2050384</v>
+      </c>
+      <c r="C339" s="4">
+        <v>11712</v>
+      </c>
+      <c r="D339" s="3">
+        <v>47440</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340" s="2">
+        <v>2059314</v>
+      </c>
+      <c r="C340" s="4">
+        <v>8930</v>
+      </c>
+      <c r="D340" s="3">
+        <v>48105</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341" s="2">
+        <v>2071636</v>
+      </c>
+      <c r="C341" s="4">
+        <v>12322</v>
+      </c>
+      <c r="D341" s="3">
+        <v>49244</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342" s="2">
+        <v>2090195</v>
+      </c>
+      <c r="C342" s="4">
+        <v>18559</v>
+      </c>
+      <c r="D342" s="3">
+        <v>50296</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343" s="2">
+        <v>2108895</v>
+      </c>
+      <c r="C343" s="4">
+        <v>18700</v>
+      </c>
+      <c r="D343" s="3">
+        <v>51151</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344" s="2">
+        <v>2125261</v>
+      </c>
+      <c r="C344" s="4">
+        <v>16366</v>
+      </c>
+      <c r="D344" s="3">
+        <v>52020</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345" s="2">
+        <v>2137689</v>
+      </c>
+      <c r="C345" s="4">
+        <v>12428</v>
+      </c>
+      <c r="D345" s="3">
+        <v>52536</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346" s="2">
+        <v>2147772</v>
+      </c>
+      <c r="C346" s="4">
+        <v>10083</v>
+      </c>
+      <c r="D346" s="3">
+        <v>52777</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2154352</v>
+      </c>
+      <c r="C347" s="4">
+        <v>6580</v>
+      </c>
+      <c r="D347" s="3">
+        <v>53402</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348" s="2">
+        <v>2164068</v>
+      </c>
+      <c r="C348" s="4">
+        <v>9716</v>
+      </c>
+      <c r="D348" s="3">
+        <v>54390</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349" s="2">
+        <v>2179679</v>
+      </c>
+      <c r="C349" s="4">
+        <v>15611</v>
+      </c>
+      <c r="D349" s="3">
+        <v>55358</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350" s="2">
+        <v>2194594</v>
+      </c>
+      <c r="C350" s="4">
+        <v>14915</v>
+      </c>
+      <c r="D350" s="3">
+        <v>56220</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351" s="2">
+        <v>2207393</v>
+      </c>
+      <c r="C351" s="4">
+        <v>12799</v>
+      </c>
+      <c r="D351" s="3">
+        <v>57052</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352" s="2">
+        <v>2217234</v>
+      </c>
+      <c r="C352" s="4">
+        <v>9841</v>
+      </c>
+      <c r="D352" s="3">
+        <v>57512</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353" s="2">
+        <v>2225686</v>
+      </c>
+      <c r="C353" s="4">
+        <v>8452</v>
+      </c>
+      <c r="D353" s="3">
+        <v>57777</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354" s="2">
+        <v>2232316</v>
+      </c>
+      <c r="C354" s="4">
+        <v>6630</v>
+      </c>
+      <c r="D354" s="3">
+        <v>58396</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2239968</v>
+      </c>
+      <c r="C355" s="4">
+        <v>7652</v>
+      </c>
+      <c r="D355" s="3">
+        <v>59386</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356" s="2">
+        <v>2252547</v>
+      </c>
+      <c r="C356" s="4">
+        <v>12579</v>
+      </c>
+      <c r="D356" s="3">
+        <v>60212</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357" s="2">
+        <v>2265494</v>
+      </c>
+      <c r="C357" s="4">
+        <v>12947</v>
+      </c>
+      <c r="D357" s="3">
+        <v>60885</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358" s="2">
+        <v>2276371</v>
+      </c>
+      <c r="C358" s="4">
+        <v>10877</v>
+      </c>
+      <c r="D358" s="3">
+        <v>61661</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2284999</v>
+      </c>
+      <c r="C359" s="4">
+        <v>8628</v>
+      </c>
+      <c r="D359" s="3">
+        <v>61998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" s="2">
+        <v>2291510</v>
+      </c>
+      <c r="C360" s="4">
+        <v>6511</v>
+      </c>
+      <c r="D360" s="3">
+        <v>62128</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" s="2">
+        <v>2296326</v>
+      </c>
+      <c r="C361" s="4">
+        <v>4816</v>
+      </c>
+      <c r="D361" s="3">
+        <v>62597</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" s="2">
+        <v>2302051</v>
+      </c>
+      <c r="C362" s="4">
+        <v>5725</v>
+      </c>
+      <c r="D362" s="3">
+        <v>63271</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" s="2">
+        <v>2311297</v>
+      </c>
+      <c r="C363" s="4">
+        <v>9246</v>
+      </c>
+      <c r="D363" s="3">
+        <v>63979</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" s="2">
+        <v>2321215</v>
+      </c>
+      <c r="C364" s="4">
+        <v>9918</v>
+      </c>
+      <c r="D364" s="3">
+        <v>64513</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" s="2">
+        <v>2330422</v>
+      </c>
+      <c r="C365" s="4">
+        <v>9207</v>
+      </c>
+      <c r="D365" s="3">
+        <v>65036</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" s="2">
+        <v>2336905</v>
+      </c>
+      <c r="C366" s="4">
+        <v>6483</v>
+      </c>
+      <c r="D366" s="3">
+        <v>65415</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" s="2">
+        <v>2341706</v>
+      </c>
+      <c r="C367" s="4">
+        <v>4801</v>
+      </c>
+      <c r="D367" s="3">
+        <v>65566</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" s="2">
+        <v>2346870</v>
+      </c>
+      <c r="C368" s="4">
+        <v>5164</v>
+      </c>
+      <c r="D368" s="3">
+        <v>65949</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" s="2">
+        <v>2352766</v>
+      </c>
+      <c r="C369" s="4">
+        <v>5896</v>
+      </c>
+      <c r="D369" s="3">
+        <v>66536</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" s="2">
+        <v>2362384</v>
+      </c>
+      <c r="C370" s="4">
+        <v>9618</v>
+      </c>
+      <c r="D370" s="3">
+        <v>67074</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" s="2">
+        <v>2372209</v>
+      </c>
+      <c r="C371" s="4">
+        <v>9825</v>
+      </c>
+      <c r="D371" s="3">
+        <v>67547</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" s="2">
+        <v>2381259</v>
+      </c>
+      <c r="C372" s="4">
+        <v>9050</v>
+      </c>
+      <c r="D372" s="3">
+        <v>68118</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373" s="2">
+        <v>2388417</v>
+      </c>
+      <c r="C373" s="4">
+        <v>7158</v>
+      </c>
+      <c r="D373" s="3">
+        <v>68343</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374" s="2">
+        <v>2394584</v>
+      </c>
+      <c r="C374" s="4">
+        <v>6167</v>
+      </c>
+      <c r="D374" s="3">
+        <v>68443</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375" s="2">
+        <v>2399500</v>
+      </c>
+      <c r="C375" s="4">
+        <v>4916</v>
+      </c>
+      <c r="D375" s="3">
+        <v>68772</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376" s="2">
+        <v>2405263</v>
+      </c>
+      <c r="C376" s="4">
+        <v>5763</v>
+      </c>
+      <c r="D376" s="3">
+        <v>69214</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" s="2">
+        <v>2416037</v>
+      </c>
+      <c r="C377" s="4">
+        <v>10774</v>
+      </c>
+      <c r="D377" s="3">
+        <v>69610</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" s="2">
+        <v>2426819</v>
+      </c>
+      <c r="C378" s="4">
+        <v>10782</v>
+      </c>
+      <c r="D378" s="3">
+        <v>70003</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" s="2">
+        <v>2436506</v>
+      </c>
+      <c r="C379" s="4">
+        <v>9687</v>
+      </c>
+      <c r="D379" s="3">
+        <v>70421</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" s="2">
+        <v>2444177</v>
+      </c>
+      <c r="C380" s="4">
+        <v>7671</v>
+      </c>
+      <c r="D380" s="3">
+        <v>70589</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" s="2">
+        <v>2450362</v>
+      </c>
+      <c r="C381" s="4">
+        <v>6185</v>
+      </c>
+      <c r="D381" s="3">
+        <v>70687</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" s="2">
+        <v>2455569</v>
+      </c>
+      <c r="C382" s="4">
+        <v>5207</v>
+      </c>
+      <c r="D382" s="3">
+        <v>70924</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" s="2">
+        <v>2462061</v>
+      </c>
+      <c r="C383" s="4">
+        <v>6492</v>
+      </c>
+      <c r="D383" s="3">
+        <v>71325</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" s="2">
+        <v>2472896</v>
+      </c>
+      <c r="C384" s="4">
+        <v>10835</v>
+      </c>
+      <c r="D384" s="3">
+        <v>71711</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" s="2">
+        <v>2484306</v>
+      </c>
+      <c r="C385" s="4">
+        <v>11410</v>
+      </c>
+      <c r="D385" s="3">
+        <v>72007</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" s="2">
+        <v>2493887</v>
+      </c>
+      <c r="C386" s="4">
+        <v>9581</v>
+      </c>
+      <c r="D386" s="3">
+        <v>72297</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" s="2">
+        <v>2502122</v>
+      </c>
+      <c r="C387" s="4">
+        <v>8235</v>
+      </c>
+      <c r="D387" s="3">
+        <v>72470</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" s="2">
+        <v>2508655</v>
+      </c>
+      <c r="C388" s="4">
+        <v>6533</v>
+      </c>
+      <c r="D388" s="3">
+        <v>72532</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" s="2">
+        <v>2513768</v>
+      </c>
+      <c r="C389" s="4">
+        <v>5113</v>
+      </c>
+      <c r="D389" s="3">
+        <v>72698</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" s="2">
+        <v>2520609</v>
+      </c>
+      <c r="C390" s="4">
+        <v>6841</v>
+      </c>
+      <c r="D390" s="3">
+        <v>72981</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" s="2">
+        <v>2532855</v>
+      </c>
+      <c r="C391" s="4">
+        <v>12246</v>
+      </c>
+      <c r="D391" s="3">
+        <v>73276</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" s="2">
+        <v>2546510</v>
+      </c>
+      <c r="C392" s="4">
+        <v>13655</v>
+      </c>
+      <c r="D392" s="3">
+        <v>73560</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393" s="2">
+        <v>2559296</v>
+      </c>
+      <c r="C393" s="4">
+        <v>12786</v>
+      </c>
+      <c r="D393" s="3">
+        <v>73790</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394" s="2">
+        <v>2569850</v>
+      </c>
+      <c r="C394" s="4">
+        <v>10554</v>
+      </c>
+      <c r="D394" s="3">
+        <v>73907</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395" s="2">
+        <v>2578835</v>
+      </c>
+      <c r="C395" s="4">
+        <v>8985</v>
+      </c>
+      <c r="D395" s="3">
+        <v>73959</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396" s="2">
+        <v>2585385</v>
+      </c>
+      <c r="C396" s="4">
+        <v>6550</v>
+      </c>
+      <c r="D396" s="3">
+        <v>74115</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397" s="2">
+        <v>2594675</v>
+      </c>
+      <c r="C397" s="4">
+        <v>9290</v>
+      </c>
+      <c r="D397" s="3">
+        <v>74431</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398" s="2">
+        <v>2610769</v>
+      </c>
+      <c r="C398" s="4">
+        <v>16094</v>
+      </c>
+      <c r="D398" s="3">
+        <v>74677</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399" s="2">
+        <v>2628629</v>
+      </c>
+      <c r="C399" s="4">
+        <v>17860</v>
+      </c>
+      <c r="D399" s="3">
+        <v>74878</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400" s="2">
+        <v>2645186</v>
+      </c>
+      <c r="C400" s="4">
+        <v>16557</v>
+      </c>
+      <c r="D400" s="3">
+        <v>75073</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401" s="2">
+        <v>2658851</v>
+      </c>
+      <c r="C401" s="4">
+        <v>13665</v>
+      </c>
+      <c r="D401" s="3">
+        <v>75196</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402" s="2">
+        <v>2670000</v>
+      </c>
+      <c r="C402" s="4">
+        <v>11149</v>
+      </c>
+      <c r="D402" s="3">
+        <v>75270</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403" s="2">
+        <v>2678262</v>
+      </c>
+      <c r="C403" s="4">
+        <v>8262</v>
+      </c>
+      <c r="D403" s="3">
+        <v>75418</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404" s="2">
+        <v>2689205</v>
+      </c>
+      <c r="C404" s="4">
+        <v>10943</v>
+      </c>
+      <c r="D404" s="3">
+        <v>75708</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405" s="2">
+        <v>2709872</v>
+      </c>
+      <c r="C405" s="4">
+        <v>20667</v>
+      </c>
+      <c r="D405" s="3">
+        <v>75911</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406" s="2">
+        <v>2732130</v>
+      </c>
+      <c r="C406" s="4">
+        <v>22258</v>
+      </c>
+      <c r="D406" s="3">
+        <v>76116</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407" s="2">
+        <v>2754002</v>
+      </c>
+      <c r="C407" s="4">
+        <v>21872</v>
+      </c>
+      <c r="D407" s="3">
+        <v>76303</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408" s="2">
+        <v>2772694</v>
+      </c>
+      <c r="C408" s="4">
+        <v>18692</v>
+      </c>
+      <c r="D408" s="3">
+        <v>76404</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" s="2">
+        <v>2786345</v>
+      </c>
+      <c r="C409" s="4">
+        <v>13651</v>
+      </c>
+      <c r="D409" s="3">
+        <v>76468</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" s="2">
+        <v>2796400</v>
+      </c>
+      <c r="C410" s="4">
+        <v>10055</v>
+      </c>
+      <c r="D410" s="3">
+        <v>76599</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" s="2">
+        <v>2809510</v>
+      </c>
+      <c r="C411" s="4">
+        <v>13110</v>
+      </c>
+      <c r="D411" s="3">
+        <v>76833</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412" s="2">
+        <v>2830335</v>
+      </c>
+      <c r="C412" s="4">
+        <v>20825</v>
+      </c>
+      <c r="D412" s="3">
+        <v>77039</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413" s="2">
+        <v>2854137</v>
+      </c>
+      <c r="C413" s="4">
+        <v>23802</v>
+      </c>
+      <c r="D413" s="3">
+        <v>77244</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414" s="2">
+        <v>2872379</v>
+      </c>
+      <c r="C414" s="4">
+        <v>18242</v>
+      </c>
+      <c r="D414" s="3">
+        <v>77421</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415" s="2">
+        <v>2886020</v>
+      </c>
+      <c r="C415" s="4">
+        <v>13641</v>
+      </c>
+      <c r="D415" s="3">
+        <v>77502</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416" s="2">
+        <v>2895631</v>
+      </c>
+      <c r="C416" s="4">
+        <v>9611</v>
+      </c>
+      <c r="D416" s="3">
+        <v>77557</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417" s="2">
+        <v>2903036</v>
+      </c>
+      <c r="C417" s="4">
+        <v>7405</v>
+      </c>
+      <c r="D417" s="3">
+        <v>77630</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418" s="2">
+        <v>2912636</v>
+      </c>
+      <c r="C418" s="4">
+        <v>9600</v>
+      </c>
+      <c r="D418" s="3">
+        <v>77862</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419" s="2">
+        <v>2927572</v>
+      </c>
+      <c r="C419" s="4">
+        <v>14936</v>
+      </c>
+      <c r="D419" s="3">
+        <v>78174</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420" s="2">
+        <v>2951829</v>
+      </c>
+      <c r="C420" s="4">
+        <v>24257</v>
+      </c>
+      <c r="D420" s="3">
+        <v>78473</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421" s="2">
+        <v>2974110</v>
+      </c>
+      <c r="C421" s="4">
+        <v>22281</v>
+      </c>
+      <c r="D421" s="3">
+        <v>78689</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422" s="2">
+        <v>2992803</v>
+      </c>
+      <c r="C422" s="4">
+        <v>18693</v>
+      </c>
+      <c r="D422" s="3">
+        <v>78858</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423" s="2">
+        <v>3009541</v>
+      </c>
+      <c r="C423" s="4">
+        <v>16738</v>
+      </c>
+      <c r="D423" s="3">
+        <v>78964</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424" s="2">
+        <v>3021064</v>
+      </c>
+      <c r="C424" s="4">
+        <v>11523</v>
+      </c>
+      <c r="D424" s="3">
+        <v>79110</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425" s="2">
+        <v>3031836</v>
+      </c>
+      <c r="C425" s="4">
+        <v>10772</v>
+      </c>
+      <c r="D425" s="3">
+        <v>79408</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426" s="2">
+        <v>3064382</v>
+      </c>
+      <c r="C426" s="4">
+        <v>32546</v>
+      </c>
+      <c r="D426" s="3">
+        <v>79813</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427" s="2">
+        <v>3095016</v>
+      </c>
+      <c r="C427" s="4">
+        <v>30634</v>
+      </c>
+      <c r="D427" s="3">
+        <v>80141</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428" s="2">
+        <v>3116950</v>
+      </c>
+      <c r="C428" s="4">
+        <v>21934</v>
+      </c>
+      <c r="D428" s="3">
+        <v>80387</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429" s="2">
+        <v>3137907</v>
+      </c>
+      <c r="C429" s="4">
+        <v>20957</v>
+      </c>
+      <c r="D429" s="3">
+        <v>80526</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430" s="2">
+        <v>3151030</v>
+      </c>
+      <c r="C430" s="4">
+        <v>13123</v>
+      </c>
+      <c r="D430" s="3">
+        <v>80591</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431" s="2">
+        <v>3164447</v>
+      </c>
+      <c r="C431" s="4">
+        <v>13417</v>
+      </c>
+      <c r="D431" s="3">
+        <v>80774</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432" s="2">
+        <v>3180810</v>
+      </c>
+      <c r="C432" s="4">
+        <v>16363</v>
+      </c>
+      <c r="D432" s="3">
+        <v>81086</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433" s="2">
+        <v>3208672</v>
+      </c>
+      <c r="C433" s="4">
+        <v>27862</v>
+      </c>
+      <c r="D433" s="3">
+        <v>81382</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434" s="2">
+        <v>3238054</v>
+      </c>
+      <c r="C434" s="4">
+        <v>29382</v>
+      </c>
+      <c r="D434" s="3">
+        <v>81693</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435" s="2">
+        <v>3261764</v>
+      </c>
+      <c r="C435" s="4">
+        <v>23710</v>
+      </c>
+      <c r="D435" s="3">
+        <v>81936</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="B436" s="2">
+        <v>3286187</v>
+      </c>
+      <c r="C436" s="4">
+        <v>24423</v>
+      </c>
+      <c r="D436" s="3">
+        <v>82194</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="B437" s="2">
+        <v>3298201</v>
+      </c>
+      <c r="C437" s="4">
+        <v>12014</v>
+      </c>
+      <c r="D437" s="3">
+        <v>82237</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="B438" s="2">
+        <v>3307769</v>
+      </c>
+      <c r="C438" s="4">
+        <v>9568</v>
+      </c>
+      <c r="D438" s="3">
+        <v>82344</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="B439" s="2">
+        <v>3326778</v>
+      </c>
+      <c r="C439" s="4">
+        <v>19009</v>
+      </c>
+      <c r="D439" s="3">
+        <v>82698</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" s="2">
+        <v>3351474</v>
+      </c>
+      <c r="C440" s="4">
+        <v>24696</v>
+      </c>
+      <c r="D440" s="3">
+        <v>83018</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" s="2">
+        <v>3379387</v>
+      </c>
+      <c r="C441" s="4">
+        <v>27913</v>
+      </c>
+      <c r="D441" s="3">
+        <v>83338</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" s="2">
+        <v>3392232</v>
+      </c>
+      <c r="C442" s="4">
+        <v>12845</v>
+      </c>
+      <c r="D442" s="3">
+        <v>83542</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" s="2">
+        <v>3412373</v>
+      </c>
+      <c r="C443" s="4">
+        <v>20141</v>
+      </c>
+      <c r="D443" s="3">
+        <v>83702</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" s="2">
+        <v>3425598</v>
+      </c>
+      <c r="C444" s="4">
+        <v>13225</v>
+      </c>
+      <c r="D444" s="3">
+        <v>83826</v>
       </c>
     </row>
   </sheetData>

--- a/Database/Csaki/Germania.xlsx
+++ b/Database/Csaki/Germania.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Licenta\Baza date liceta\Licenta_covid19_UTCN\Database\Csaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51800218-6790-4289-ACB5-A7AEE1D3A601}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9FA304-FA7C-4212-AD03-C9386C5B1A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D444"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D444"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="F431" sqref="F431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6658,6 +6658,370 @@
         <v>83826</v>
       </c>
     </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" s="2">
+        <v>3435877</v>
+      </c>
+      <c r="C445" s="4">
+        <v>10279</v>
+      </c>
+      <c r="D445" s="3">
+        <v>84020</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" s="2">
+        <v>3448182</v>
+      </c>
+      <c r="C446" s="4">
+        <v>12305</v>
+      </c>
+      <c r="D446" s="3">
+        <v>84285</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" s="2">
+        <v>3469448</v>
+      </c>
+      <c r="C447" s="4">
+        <v>21266</v>
+      </c>
+      <c r="D447" s="3">
+        <v>84593</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="B448" s="2">
+        <v>3486462</v>
+      </c>
+      <c r="C448" s="4">
+        <v>17014</v>
+      </c>
+      <c r="D448" s="3">
+        <v>84811</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="B449" s="2">
+        <v>3504012</v>
+      </c>
+      <c r="C449" s="4">
+        <v>17550</v>
+      </c>
+      <c r="D449" s="3">
+        <v>85056</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="B450" s="2">
+        <v>3519250</v>
+      </c>
+      <c r="C450" s="4">
+        <v>15238</v>
+      </c>
+      <c r="D450" s="3">
+        <v>85252</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="B451" s="2">
+        <v>3527540</v>
+      </c>
+      <c r="C451" s="4">
+        <v>8290</v>
+      </c>
+      <c r="D451" s="3">
+        <v>85371</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="B452" s="2">
+        <v>3535354</v>
+      </c>
+      <c r="C452" s="4">
+        <v>7814</v>
+      </c>
+      <c r="D452" s="3">
+        <v>85481</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="B453" s="2">
+        <v>3544315</v>
+      </c>
+      <c r="C453" s="4">
+        <v>8961</v>
+      </c>
+      <c r="D453" s="3">
+        <v>85757</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="B454" s="2">
+        <v>3558148</v>
+      </c>
+      <c r="C454" s="4">
+        <v>13833</v>
+      </c>
+      <c r="D454" s="3">
+        <v>86009</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="B455" s="2">
+        <v>3575644</v>
+      </c>
+      <c r="C455" s="4">
+        <v>17496</v>
+      </c>
+      <c r="D455" s="3">
+        <v>86276</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="B456" s="2">
+        <v>3585891</v>
+      </c>
+      <c r="C456" s="4">
+        <v>10247</v>
+      </c>
+      <c r="D456" s="3">
+        <v>86481</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="B457" s="2">
+        <v>3595872</v>
+      </c>
+      <c r="C457" s="4">
+        <v>9981</v>
+      </c>
+      <c r="D457" s="3">
+        <v>86669</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="B458" s="2">
+        <v>3602939</v>
+      </c>
+      <c r="C458" s="4">
+        <v>7067</v>
+      </c>
+      <c r="D458" s="3">
+        <v>86731</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="B459" s="2">
+        <v>3608292</v>
+      </c>
+      <c r="C459" s="4">
+        <v>5353</v>
+      </c>
+      <c r="D459" s="3">
+        <v>86870</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="B460" s="2">
+        <v>3615896</v>
+      </c>
+      <c r="C460" s="4">
+        <v>7604</v>
+      </c>
+      <c r="D460" s="3">
+        <v>87148</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="B461" s="2">
+        <v>3627777</v>
+      </c>
+      <c r="C461" s="4">
+        <v>11881</v>
+      </c>
+      <c r="D461" s="3">
+        <v>87405</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="B462" s="2">
+        <v>3638504</v>
+      </c>
+      <c r="C462" s="4">
+        <v>10727</v>
+      </c>
+      <c r="D462" s="3">
+        <v>87639</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="B463" s="2">
+        <v>3646600</v>
+      </c>
+      <c r="C463" s="4">
+        <v>8096</v>
+      </c>
+      <c r="D463" s="3">
+        <v>87852</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="B464" s="2">
+        <v>3653019</v>
+      </c>
+      <c r="C464" s="4">
+        <v>6419</v>
+      </c>
+      <c r="D464" s="3">
+        <v>87960</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="B465" s="2">
+        <v>3654201</v>
+      </c>
+      <c r="C465" s="4">
+        <v>1182</v>
+      </c>
+      <c r="D465" s="3">
+        <v>87973</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="B466" s="2">
+        <v>3659990</v>
+      </c>
+      <c r="C466" s="4">
+        <v>5789</v>
+      </c>
+      <c r="D466" s="3">
+        <v>88039</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="B467" s="2">
+        <v>3662568</v>
+      </c>
+      <c r="C467" s="4">
+        <v>2578</v>
+      </c>
+      <c r="D467" s="3">
+        <v>88161</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="B468" s="2">
+        <v>3667041</v>
+      </c>
+      <c r="C468" s="4">
+        <v>4473</v>
+      </c>
+      <c r="D468" s="3">
+        <v>88479</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="B469" s="2">
+        <v>3673969</v>
+      </c>
+      <c r="C469" s="4">
+        <v>6928</v>
+      </c>
+      <c r="D469" s="3">
+        <v>88689</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="B470" s="2">
+        <v>3680159</v>
+      </c>
+      <c r="C470" s="4">
+        <v>6190</v>
+      </c>
+      <c r="D470" s="3">
+        <v>88884</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
